--- a/outputs-r202/g__Bulleidia.xlsx
+++ b/outputs-r202/g__Bulleidia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -729,6 +734,11 @@
           <t>s__Bulleidia massiliensis_B</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>s__Bulleidia massiliensis_B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -843,6 +853,11 @@
           <t>s__Bulleidia massiliensis_A</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>s__Bulleidia massiliensis_A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -957,6 +972,11 @@
           <t>s__Bulleidia massiliensis_B</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>s__Bulleidia massiliensis_B</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1071,6 +1091,11 @@
           <t>s__Bulleidia sp900315065</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>s__Bulleidia sp900315065</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1185,6 +1210,11 @@
           <t>s__Bulleidia sp900315225</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>s__Bulleidia sp900315225(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1299,6 +1329,11 @@
           <t>s__Bulleidia sp900319505</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>s__Bulleidia sp900319505</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1413,6 +1448,11 @@
           <t>s__Bulleidia sp900314905</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>s__Bulleidia sp900314905(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1523,6 +1563,11 @@
         <v>0.9999989115999852</v>
       </c>
       <c r="AJ9" t="inlineStr">
+        <is>
+          <t>s__Bulleidia massiliensis_A</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>s__Bulleidia massiliensis_A</t>
         </is>

--- a/outputs-r202/g__Bulleidia.xlsx
+++ b/outputs-r202/g__Bulleidia.xlsx
@@ -743,229 +743,229 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG052.fasta</t>
+          <t>RUG050.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999995397727021</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>4.512403488824577e-07</v>
+        <v>6.134825818356167e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634018e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>0.9999284963202647</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>1.921790503140331e-13</v>
+        <v>2.404412353843858e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.585322294342182e-13</v>
+        <v>1.011436514842097e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220446018283349e-14</v>
+        <v>2.220880084634015e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.985276807732077e-09</v>
+        <v>4.081534036527895e-08</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.9999995397727021</v>
+        <v>0.9999284963202647</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>s__Bulleidia massiliensis_A</t>
+          <t>s__Bulleidia sp900314905</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>s__Bulleidia massiliensis_A</t>
+          <t>s__Bulleidia sp900314905</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG053.fasta</t>
+          <t>RUG051.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9584243977360868</v>
+        <v>0.9606903797512938</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>4.556221739922223e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04157269766560644</v>
+        <v>0.03930339636524015</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.933207792646184e-09</v>
+        <v>3.068168368939722e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.898912597378803e-06</v>
+        <v>6.218381726218851e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220198688673953e-14</v>
+        <v>2.220196794258441e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.751856589624848e-09</v>
+        <v>5.194301480602623e-09</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.9584243977360868</v>
+        <v>0.9606903797512938</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -981,476 +981,476 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG054.fasta</t>
+          <t>RUG052.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>0.9999995397727021</v>
       </c>
       <c r="D5" t="n">
-        <v>1.754833543292096e-05</v>
+        <v>4.512403488824577e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>6.735114698779645e-05</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9987856991702533</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>1.921790503140331e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.850651460900057e-11</v>
+        <v>8.585322294342182e-13</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220364638291295e-14</v>
+        <v>2.220446018283349e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001129401318197779</v>
+        <v>8.985276807732077e-09</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9987856991702533</v>
+        <v>0.9999995397727021</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900315065</t>
+          <t>s__Bulleidia massiliensis_A</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900315065</t>
+          <t>s__Bulleidia massiliensis_A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>hRUG876.fasta</t>
+          <t>RUG053.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004219372260877506</v>
+        <v>0.9584243977360868</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>9.846947695166688e-13</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>4.556221739922223e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>0.04157269766560644</v>
       </c>
       <c r="M6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9995780579734204</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.933207792646184e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.898912597378803e-06</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.220417693950956e-14</v>
+        <v>2.220198688673953e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.798863216707969e-09</v>
+        <v>2.751856589624848e-09</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9995780579734204</v>
+        <v>0.9584243977360868</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900319505</t>
+          <t>s__Bulleidia massiliensis_B</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900319505</t>
+          <t>s__Bulleidia massiliensis_B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>hRUG902.fasta</t>
+          <t>RUG054.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999981180211</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.619842510468303e-10</v>
+        <v>1.754833543292096e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>6.735114698779645e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>5.827658519940318e-10</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>6.030813508871843e-13</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>0.9987856991702533</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>5.046985165535551e-12</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.05599730850592e-12</v>
+        <v>2.850651460900057e-11</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.220446049123644e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.269456043819083e-10</v>
+        <v>0.001129401318197779</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.9999999981180211</v>
+        <v>0.9987856991702533</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>s__Bulleidia massiliensis_A</t>
+          <t>s__Bulleidia sp900315065</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>s__Bulleidia massiliensis_A</t>
+          <t>s__Bulleidia sp900315065</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>hRUG895.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>0.0004219372260877506</v>
       </c>
       <c r="E8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.145719271822613</v>
+        <v>9.846947695166688e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3342222335250732</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2717388964179064</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>0.9995780579734204</v>
       </c>
       <c r="P8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2483027056842436</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.244615554273e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.262045327766573e-06</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.244615554272999e-12</v>
+        <v>2.220417693950956e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.163047123205397e-05</v>
+        <v>4.798863216707969e-09</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.3342222335250732</v>
+        <v>0.9995780579734204</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900314905</t>
+          <t>s__Bulleidia sp900319505</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>s__Bulleidia sp900314905(reject)</t>
+          <t>s__Bulleidia sp900319505</t>
         </is>
       </c>
     </row>
@@ -1461,106 +1461,106 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999989115999852</v>
+        <v>0.9999999981180211</v>
       </c>
       <c r="D9" t="n">
-        <v>1.632931562849876e-11</v>
+        <v>6.619842510468303e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>1.088075744582806e-06</v>
+        <v>5.827658519940318e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>3.108544281230105e-11</v>
+        <v>6.030813508871843e-13</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="R9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>4.83139196696166e-11</v>
+        <v>5.046985165535551e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.188129071291446e-11</v>
+        <v>4.05599730850592e-12</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.220445976016163e-14</v>
+        <v>2.220446049123644e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.160829983239802e-10</v>
+        <v>6.269456043819083e-10</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9999989115999852</v>
+        <v>0.9999999981180211</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
